--- a/Übungen/03_Netzplan_Übung2.xlsx
+++ b/Übungen/03_Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -33,10 +33,16 @@
     <t xml:space="preserve">Nachfolger</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -74,17 +80,21 @@
   <si>
     <t xml:space="preserve">SEZ</t>
   </si>
+  <si>
+    <t xml:space="preserve">überoptimiert:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0\ %"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,6 +115,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -252,11 +277,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="thin">
+        <color rgb="FF536DFE"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left style="thin">
+        <color rgb="FF536DFE"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -266,11 +295,13 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="thin">
+        <color rgb="FF536DFE"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,8 +325,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,7 +350,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,7 +366,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,23 +386,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,6 +418,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,11 +434,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,7 +454,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -408,14 +466,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Überschrift 1" xfId="20"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -472,7 +535,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF536DFE"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFDD835"/>
@@ -493,20 +556,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="9" min="8" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="10" min="10" style="1" width="6.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,8 +596,15 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
@@ -556,22 +633,31 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="K2" s="0"/>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <f aca="false">ROUNDUP(H2/(I2*J2),0)</f>
+        <v>12</v>
+      </c>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -579,36 +665,48 @@
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
-      <c r="U2" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="7" t="n">
-        <v>29</v>
+      <c r="U2" s="7" t="n">
+        <f aca="false">R8</f>
+        <v>20</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="9" t="n">
+        <f aca="false">U2+U4</f>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="0"/>
+      <c r="I3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <f aca="false">(100%+(100%-J4))/I3</f>
+        <v>0.625</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <f aca="false">ROUNDUP(H3/(I3*J3),0)</f>
+        <v>8</v>
+      </c>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -616,34 +714,43 @@
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="K4" s="0"/>
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <f aca="false">ROUNDUP(H4/(I4*J4),0)</f>
+        <v>6</v>
+      </c>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -651,37 +758,48 @@
       <c r="P4" s="0"/>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12" t="n">
-        <f aca="false">VLOOKUP(U3,$A$2:$H$9,8)</f>
-        <v>8</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="W4" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="11"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14" t="n">
+        <f aca="false">VLOOKUP(U3,$A$2:$K$9,11)</f>
+        <v>11</v>
+      </c>
+      <c r="V4" s="15" t="n">
+        <f aca="false">W5-W2</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="16" t="n">
+        <f aca="false">AE8-W2</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K5" s="0"/>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <f aca="false">ROUNDUP(H5/(I5*J5),0)</f>
+        <v>11</v>
+      </c>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
@@ -689,34 +807,46 @@
       <c r="P5" s="0"/>
       <c r="Q5" s="0"/>
       <c r="R5" s="0"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="15" t="n">
+      <c r="T5" s="13"/>
+      <c r="U5" s="17" t="n">
+        <f aca="false">W5-U4</f>
+        <v>20</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="18" t="n">
+        <f aca="false">AE11</f>
         <v>31</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="K6" s="0"/>
+      <c r="I6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <f aca="false">(100%+(100%-$J$5)+(100%-$J$7))/I6</f>
+        <v>0.7</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <f aca="false">ROUNDUP(H6/(I6*J6),0)</f>
+        <v>6</v>
+      </c>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
@@ -725,29 +855,38 @@
       <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
       <c r="S6" s="0"/>
-      <c r="T6" s="11"/>
-      <c r="Y6" s="11"/>
+      <c r="T6" s="13"/>
+      <c r="Y6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="0"/>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <f aca="false">ROUNDUP(H7/(I7*J7),0)</f>
+        <v>7</v>
+      </c>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
@@ -756,395 +895,534 @@
       <c r="Q7" s="0"/>
       <c r="R7" s="0"/>
       <c r="S7" s="0"/>
-      <c r="T7" s="11"/>
-      <c r="Y7" s="11"/>
+      <c r="T7" s="13"/>
+      <c r="Y7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="I8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <f aca="false">(100%+(100%-$J$7))/I8</f>
+        <v>0.925</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <f aca="false">ROUNDUP(H8/(I8*J8),0)</f>
+        <v>4</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <f aca="false">M11</f>
         <v>12</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="7" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="7" t="n">
-        <v>41</v>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9" t="n">
+        <f aca="false">P8+P10</f>
+        <v>20</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="7" t="n">
+        <f aca="false">R8</f>
+        <v>20</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9" t="n">
+        <f aca="false">U8+U10</f>
+        <v>26</v>
+      </c>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="7" t="n">
+        <f aca="false">MAX(W2,W14,AB20)</f>
+        <v>31</v>
+      </c>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="9" t="n">
+        <f aca="false">AE8+AE10</f>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20" t="n">
+        <f aca="false">ROUNDUP(H9/(I9*J9),0)</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="10"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="13"/>
+      <c r="P10" s="14" t="n">
+        <f aca="false">VLOOKUP(P9,$A$2:$K$9,11)</f>
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="8"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="11"/>
-      <c r="P10" s="12" t="n">
-        <f aca="false">VLOOKUP(P9,$A$2:$H$9,8)</f>
-        <v>9</v>
-      </c>
-      <c r="Q10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="8"/>
-      <c r="U10" s="12" t="n">
-        <f aca="false">VLOOKUP(U9,$A$2:$H$9,8)</f>
-        <v>11</v>
-      </c>
-      <c r="V10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="14" t="n">
+      <c r="Q10" s="15" t="n">
+        <f aca="false">R11-R8</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16" t="n">
+        <f aca="false">MIN(U2,U8,U14)-R8</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="U10" s="14" t="n">
+        <f aca="false">VLOOKUP(U9,$A$2:$K$9,11)</f>
+        <v>6</v>
+      </c>
+      <c r="V10" s="15" t="n">
+        <f aca="false">W11-W8</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="16" t="n">
+        <f aca="false">Z20-W8</f>
         <v>0</v>
       </c>
       <c r="X10" s="0"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="21"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="25"/>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="12" t="n">
-        <f aca="false">VLOOKUP(AE9,$A$2:$H$9,8)</f>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="14" t="n">
+        <f aca="false">VLOOKUP(AE9,$A$2:$K$9,11)</f>
         <v>2</v>
       </c>
-      <c r="AF10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="14"/>
+      <c r="AF10" s="15" t="n">
+        <f aca="false">AG11-AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9" t="n">
+        <f aca="false">K11+K13</f>
         <v>12</v>
       </c>
-      <c r="K11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7" t="n">
+      <c r="N11" s="10"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="17" t="n">
+        <f aca="false">R11-P10</f>
         <v>12</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="15" t="n">
+      <c r="Q11" s="8"/>
+      <c r="R11" s="18" t="n">
+        <f aca="false">MIN(U5,U11,U17)</f>
+        <v>20</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="17" t="n">
+        <f aca="false">W11-U10</f>
+        <v>21</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="18" t="n">
+        <f aca="false">Z23</f>
+        <v>27</v>
+      </c>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="25"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="17" t="n">
+        <f aca="false">AG11-AE10</f>
+        <v>31</v>
+      </c>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="18" t="n">
+        <f aca="false">AG8</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="O12" s="8"/>
+      <c r="T12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="25"/>
+      <c r="AD12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="14" t="n">
+        <f aca="false">VLOOKUP(K12,$A$2:$K$9,11)</f>
         <v>12</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="16" t="n">
-        <v>21</v>
-      </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="15" t="n">
-        <v>21</v>
-      </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="16" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="21"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="15" t="n">
-        <v>39</v>
-      </c>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="16" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="K12" s="9" t="s">
+      <c r="L13" s="15" t="n">
+        <f aca="false">M14-M11</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <f aca="false">MIN(P8,P14)-M11</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="8"/>
+      <c r="T13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="25"/>
+      <c r="AD13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <f aca="false">M14-K13</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="18" t="n">
+        <f aca="false">MIN(P11,P17)</f>
+        <v>12</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="7" t="n">
+        <f aca="false">M11</f>
+        <v>12</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9" t="n">
+        <f aca="false">P14+P16</f>
+        <v>18</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="7" t="n">
+        <f aca="false">MAX(R8,R14)</f>
+        <v>20</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9" t="n">
+        <f aca="false">U14+U16</f>
+        <v>27</v>
+      </c>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="25"/>
+      <c r="AD14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="19"/>
+      <c r="P15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="25"/>
+      <c r="AD15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="14" t="n">
+        <f aca="false">VLOOKUP(P15,$A$2:$K$9,11)</f>
+        <v>6</v>
+      </c>
+      <c r="Q16" s="15" t="n">
+        <f aca="false">R17-R14</f>
+        <v>6</v>
+      </c>
+      <c r="R16" s="16" t="n">
+        <f aca="false">MIN(U14,Z20)-R14</f>
+        <v>2</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="U16" s="14" t="n">
+        <f aca="false">VLOOKUP(U15,$A$2:$K$9,11)</f>
+        <v>7</v>
+      </c>
+      <c r="V16" s="15" t="n">
+        <f aca="false">W17-W14</f>
         <v>4</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="O12" s="6"/>
-      <c r="T12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="21"/>
-      <c r="AD12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="12" t="n">
-        <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
-        <v>12</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="6"/>
-      <c r="T13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="21"/>
-      <c r="AD13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="21"/>
-      <c r="AD14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="17"/>
-      <c r="P15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="21"/>
-      <c r="AD15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P16" s="12" t="n">
-        <f aca="false">VLOOKUP(P15,$A$2:$H$9,8)</f>
+      <c r="W16" s="16" t="n">
+        <f aca="false">AE8-W14</f>
         <v>4</v>
       </c>
-      <c r="Q16" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="R16" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" s="8"/>
-      <c r="U16" s="12" t="n">
-        <f aca="false">VLOOKUP(U15,$A$2:$H$9,8)</f>
-        <v>1</v>
-      </c>
-      <c r="V16" s="13" t="n">
-        <v>17</v>
-      </c>
-      <c r="W16" s="14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" s="11"/>
-      <c r="AD16" s="11"/>
+      <c r="Y16" s="13"/>
+      <c r="AD16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="15" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="16" t="n">
-        <v>32</v>
-      </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="15" t="n">
-        <v>38</v>
-      </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y17" s="11"/>
-      <c r="AD17" s="11"/>
+      <c r="P17" s="17" t="n">
+        <f aca="false">R17-P16</f>
+        <v>18</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="18" t="n">
+        <f aca="false">MIN(U17,Z23)</f>
+        <v>24</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="17" t="n">
+        <f aca="false">W17-U16</f>
+        <v>24</v>
+      </c>
+      <c r="V17" s="8"/>
+      <c r="W17" s="18" t="n">
+        <f aca="false">AE11</f>
+        <v>31</v>
+      </c>
+      <c r="Y17" s="13"/>
+      <c r="AD17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="AD18" s="11"/>
+      <c r="T18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="AD18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="AD19" s="11"/>
+      <c r="T19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="AD19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T20" s="11"/>
+      <c r="T20" s="13"/>
       <c r="U20" s="0"/>
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="7" t="n">
-        <v>39</v>
-      </c>
-      <c r="AD20" s="11"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="7" t="n">
+        <f aca="false">MAX(W8,R14)</f>
+        <v>26</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="9" t="n">
+        <f aca="false">Z20+Z22</f>
+        <v>30</v>
+      </c>
+      <c r="AD20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T21" s="17"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="11"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U22" s="0"/>
       <c r="V22" s="0"/>
       <c r="W22" s="0"/>
-      <c r="Z22" s="12" t="n">
-        <f aca="false">VLOOKUP(Z21,$A$2:$H$9,8)</f>
-        <v>7</v>
-      </c>
-      <c r="AA22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="14" t="n">
-        <v>0</v>
+      <c r="Z22" s="14" t="n">
+        <f aca="false">VLOOKUP(Z21,$A$2:$K$9,11)</f>
+        <v>4</v>
+      </c>
+      <c r="AA22" s="15" t="n">
+        <f aca="false">AB23-AB20</f>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="16" t="n">
+        <f aca="false">AE8-AB20</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U23" s="0"/>
       <c r="V23" s="0"/>
       <c r="W23" s="0"/>
-      <c r="Z23" s="15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="16" t="n">
-        <v>39</v>
+      <c r="Z23" s="17" t="n">
+        <f aca="false">AB23-Z22</f>
+        <v>27</v>
+      </c>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="18" t="n">
+        <f aca="false">AE11</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="I26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <f aca="false">(100%+(100%-J27))/I26</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="I29" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <f aca="false">(100%+(100%-$J$5)+(100%-$J$7))/I29</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="I31" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" s="6" t="n">
+        <f aca="false">(100%+(100%-$J$7))/I31</f>
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="I32" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="23" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="U3:W3"/>
@@ -1156,8 +1434,9 @@
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="A25:G25"/>
   </mergeCells>
-  <conditionalFormatting sqref="L13 Q10 Q16 V4 V10 V16 AA22 AF10">
+  <conditionalFormatting sqref="AF10 AA22 V16 V10 V4 Q16 Q10 L13">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1169,6 +1448,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1203,7 +1483,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -1215,11 +1495,11 @@
       <c r="R1" s="0"/>
       <c r="S1" s="0"/>
       <c r="T1" s="0"/>
-      <c r="U1" s="5" t="n">
+      <c r="U1" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="7" t="n">
+      <c r="V1" s="8"/>
+      <c r="W1" s="9" t="n">
         <v>16</v>
       </c>
       <c r="X1" s="0"/>
@@ -1235,16 +1515,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="n">
@@ -1259,13 +1539,13 @@
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="23"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="29"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
@@ -1278,18 +1558,18 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="n">
@@ -1304,19 +1584,19 @@
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
       <c r="S3" s="0"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="12" t="n">
+      <c r="T3" s="30"/>
+      <c r="U3" s="14" t="n">
         <f aca="false">VLOOKUP(U2,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="V3" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14" t="n">
+      <c r="V3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16" t="n">
         <v>0</v>
       </c>
       <c r="X3" s="0"/>
-      <c r="Y3" s="24"/>
+      <c r="Y3" s="30"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -1328,18 +1608,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="n">
@@ -1350,24 +1630,24 @@
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7" t="n">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9" t="n">
         <v>8</v>
       </c>
       <c r="S4" s="0"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="15" t="n">
+      <c r="T4" s="30"/>
+      <c r="U4" s="17" t="n">
         <v>8</v>
       </c>
       <c r="V4" s="0"/>
-      <c r="W4" s="16" t="n">
+      <c r="W4" s="18" t="n">
         <v>16</v>
       </c>
       <c r="X4" s="0"/>
-      <c r="Y4" s="24"/>
+      <c r="Y4" s="30"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
@@ -1379,15 +1659,15 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1398,19 +1678,19 @@
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="24"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0"/>
-      <c r="Y5" s="24"/>
+      <c r="Y5" s="30"/>
       <c r="Z5" s="0"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
@@ -1422,15 +1702,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1441,24 +1721,24 @@
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="12" t="n">
+      <c r="O6" s="30"/>
+      <c r="P6" s="14" t="n">
         <f aca="false">VLOOKUP(P5,$A$2:$H$9,8)</f>
         <v>6</v>
       </c>
-      <c r="Q6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10"/>
+      <c r="Q6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0"/>
-      <c r="Y6" s="24"/>
+      <c r="Y6" s="30"/>
       <c r="Z6" s="0"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
@@ -1470,15 +1750,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1486,30 +1766,30 @@
         <v>5</v>
       </c>
       <c r="N7" s="0"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="15" t="n">
+      <c r="O7" s="30"/>
+      <c r="P7" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="16" t="n">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="18" t="n">
         <v>8</v>
       </c>
       <c r="S7" s="0"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="5" t="n">
+      <c r="T7" s="30"/>
+      <c r="U7" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="7" t="n">
+      <c r="V7" s="8"/>
+      <c r="W7" s="9" t="n">
         <v>15</v>
       </c>
       <c r="X7" s="0"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="5" t="n">
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="7" t="n">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="9" t="n">
         <v>24</v>
       </c>
       <c r="AC7" s="0"/>
@@ -1520,19 +1800,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1540,78 +1820,78 @@
         <v>8</v>
       </c>
       <c r="N8" s="0"/>
-      <c r="O8" s="24"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="0"/>
       <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="9" t="s">
+      <c r="T8" s="32"/>
+      <c r="U8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="23"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="0"/>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0"/>
       <c r="AG8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18" t="n">
+      <c r="C9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="0"/>
-      <c r="O9" s="24"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="0"/>
       <c r="Q9" s="0"/>
       <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="14" t="n">
         <f aca="false">VLOOKUP(U8,$A$2:$H$9,8)</f>
         <v>7</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="W9" s="14" t="n">
+      <c r="W9" s="16" t="n">
         <v>1</v>
       </c>
       <c r="X9" s="0"/>
       <c r="Y9" s="0"/>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="14" t="n">
         <f aca="false">VLOOKUP(Z8,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="AA9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14" t="n">
+      <c r="AA9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC9" s="0"/>
-      <c r="AD9" s="24"/>
+      <c r="AD9" s="30"/>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
       <c r="AG9" s="0"/>
@@ -1621,88 +1901,88 @@
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="24"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="0"/>
       <c r="Q10" s="0"/>
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
-      <c r="U10" s="15" t="n">
+      <c r="U10" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="16" t="n">
+      <c r="V10" s="8"/>
+      <c r="W10" s="18" t="n">
         <v>16</v>
       </c>
       <c r="X10" s="0"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="15" t="n">
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="16" t="n">
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="18" t="n">
         <v>24</v>
       </c>
       <c r="AC10" s="0"/>
-      <c r="AD10" s="24"/>
+      <c r="AD10" s="30"/>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
       <c r="AG10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7" t="n">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="24"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="0"/>
       <c r="Q11" s="0"/>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="24"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="30"/>
       <c r="Z11" s="0"/>
       <c r="AA11" s="0"/>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
-      <c r="AD11" s="24"/>
+      <c r="AD11" s="30"/>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0"/>
       <c r="AG11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="K12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="27"/>
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="0"/>
       <c r="Q12" s="0"/>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
-      <c r="T12" s="24"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="0"/>
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
@@ -1712,38 +1992,38 @@
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
-      <c r="AD12" s="24"/>
+      <c r="AD12" s="30"/>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0"/>
       <c r="AG12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="12" t="n">
+      <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="14" t="n">
         <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
         <v>2</v>
       </c>
-      <c r="L13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14" t="n">
+      <c r="L13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="0"/>
-      <c r="O13" s="24"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="0"/>
       <c r="Q13" s="0"/>
       <c r="R13" s="0"/>
       <c r="S13" s="0"/>
-      <c r="T13" s="24"/>
+      <c r="T13" s="30"/>
       <c r="U13" s="0"/>
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
@@ -1753,37 +2033,37 @@
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="5" t="n">
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="7" t="n">
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="9" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="16" t="n">
+      <c r="A14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="18" t="n">
         <v>2</v>
       </c>
       <c r="N14" s="0"/>
-      <c r="O14" s="24"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="0"/>
       <c r="Q14" s="0"/>
       <c r="R14" s="0"/>
       <c r="S14" s="0"/>
-      <c r="T14" s="24"/>
+      <c r="T14" s="30"/>
       <c r="U14" s="0"/>
       <c r="V14" s="0"/>
       <c r="W14" s="0"/>
@@ -1793,21 +2073,21 @@
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
       <c r="AC14" s="0"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N15" s="0"/>
-      <c r="O15" s="24"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="0"/>
       <c r="Q15" s="0"/>
       <c r="R15" s="0"/>
       <c r="S15" s="0"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="30"/>
       <c r="U15" s="0"/>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
@@ -1817,33 +2097,33 @@
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="12" t="n">
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="14" t="n">
         <f aca="false">VLOOKUP(AE14,$A$2:$H$9,8)</f>
         <v>6</v>
       </c>
-      <c r="AF15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="14"/>
+      <c r="AF15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N16" s="0"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="5" t="n">
+      <c r="O16" s="30"/>
+      <c r="P16" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="7" t="n">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="5" t="n">
+      <c r="S16" s="29"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="7" t="n">
+      <c r="V16" s="8"/>
+      <c r="W16" s="9" t="n">
         <v>15</v>
       </c>
       <c r="X16" s="0"/>
@@ -1852,37 +2132,37 @@
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
       <c r="AC16" s="0"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="15" t="n">
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="16" t="n">
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="18" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N17" s="0"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="9" t="s">
+      <c r="O17" s="32"/>
+      <c r="P17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="24"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="30"/>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0"/>
       <c r="AG17" s="0"/>
@@ -1890,27 +2170,27 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="14" t="n">
         <f aca="false">VLOOKUP(P17,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="Q18" s="13" t="n">
+      <c r="Q18" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="R18" s="14" t="n">
+      <c r="R18" s="16" t="n">
         <f aca="false">MIN(U16,Z7)-R16</f>
         <v>0</v>
       </c>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
-      <c r="U18" s="12" t="n">
+      <c r="U18" s="14" t="n">
         <f aca="false">VLOOKUP(U17,$A$2:$H$9,8)</f>
         <v>5</v>
       </c>
-      <c r="V18" s="13" t="n">
+      <c r="V18" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="W18" s="14" t="n">
+      <c r="W18" s="16" t="n">
         <v>9</v>
       </c>
       <c r="X18" s="0"/>
@@ -1927,20 +2207,20 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="15" t="n">
+      <c r="P19" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="16" t="n">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="18" t="n">
         <v>16</v>
       </c>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
-      <c r="U19" s="15" t="n">
+      <c r="U19" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="16" t="n">
+      <c r="V19" s="8"/>
+      <c r="W19" s="18" t="n">
         <v>24</v>
       </c>
       <c r="X19" s="0"/>
@@ -2078,7 +2358,7 @@
   </sheetPr>
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z10" activeCellId="0" sqref="Z10"/>
     </sheetView>
   </sheetViews>
@@ -2102,7 +2382,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -2131,16 +2411,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="n">
@@ -2173,21 +2453,21 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>3</v>
@@ -2219,15 +2499,15 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2261,15 +2541,15 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2303,15 +2583,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2345,15 +2625,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2384,17 +2664,17 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2424,22 +2704,22 @@
       <c r="AH8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18" t="n">
+      <c r="D9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="0"/>
@@ -2491,18 +2771,18 @@
       <c r="AH10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7" t="n">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9" t="n">
         <v>2</v>
       </c>
       <c r="N11" s="0"/>
@@ -2528,16 +2808,16 @@
       <c r="AH11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="K12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
       <c r="P12" s="0"/>
@@ -2561,23 +2841,23 @@
       <c r="AH12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="12" t="n">
+      <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="14" t="n">
         <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
         <v>5</v>
       </c>
-      <c r="L13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14" t="n">
+      <c r="L13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="0"/>
@@ -2603,18 +2883,18 @@
       <c r="AH13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="16" t="n">
+      <c r="A14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="18" t="n">
         <v>2</v>
       </c>
       <c r="N14" s="0"/>

--- a/Übungen/03_Netzplan_Übung2.xlsx
+++ b/Übungen/03_Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -354,11 +354,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,7 +366,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,19 +390,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -422,7 +422,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,7 +442,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,10 +556,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -567,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -665,15 +661,9 @@
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
-      <c r="U2" s="7" t="n">
-        <f aca="false">R8</f>
-        <v>20</v>
-      </c>
+      <c r="U2" s="7"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="9" t="n">
-        <f aca="false">U2+U4</f>
-        <v>31</v>
-      </c>
+      <c r="W2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -763,14 +753,8 @@
         <f aca="false">VLOOKUP(U3,$A$2:$K$9,11)</f>
         <v>11</v>
       </c>
-      <c r="V4" s="15" t="n">
-        <f aca="false">W5-W2</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="16" t="n">
-        <f aca="false">AE8-W2</f>
-        <v>0</v>
-      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="16"/>
       <c r="Y4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,15 +792,9 @@
       <c r="Q5" s="0"/>
       <c r="R5" s="0"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="17" t="n">
-        <f aca="false">W5-U4</f>
-        <v>20</v>
-      </c>
+      <c r="U5" s="17"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="18" t="n">
-        <f aca="false">AE11</f>
-        <v>31</v>
-      </c>
+      <c r="W5" s="18"/>
       <c r="Y5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,41 +906,23 @@
         <f aca="false">ROUNDUP(H8/(I8*J8),0)</f>
         <v>4</v>
       </c>
-      <c r="P8" s="7" t="n">
-        <f aca="false">M11</f>
-        <v>12</v>
-      </c>
+      <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="9" t="n">
-        <f aca="false">P8+P10</f>
-        <v>20</v>
-      </c>
+      <c r="R8" s="9"/>
       <c r="S8" s="10"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="7" t="n">
-        <f aca="false">R8</f>
-        <v>20</v>
-      </c>
+      <c r="U8" s="7"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="9" t="n">
-        <f aca="false">U8+U10</f>
-        <v>26</v>
-      </c>
+      <c r="W8" s="9"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
-      <c r="AE8" s="7" t="n">
-        <f aca="false">MAX(W2,W14,AB20)</f>
-        <v>31</v>
-      </c>
+      <c r="AE8" s="7"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="9" t="n">
-        <f aca="false">AE8+AE10</f>
-        <v>33</v>
-      </c>
+      <c r="AG8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -1024,27 +984,15 @@
         <f aca="false">VLOOKUP(P9,$A$2:$K$9,11)</f>
         <v>8</v>
       </c>
-      <c r="Q10" s="15" t="n">
-        <f aca="false">R11-R8</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="16" t="n">
-        <f aca="false">MIN(U2,U8,U14)-R8</f>
-        <v>0</v>
-      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
       <c r="S10" s="10"/>
       <c r="U10" s="14" t="n">
         <f aca="false">VLOOKUP(U9,$A$2:$K$9,11)</f>
         <v>6</v>
       </c>
-      <c r="V10" s="15" t="n">
-        <f aca="false">W11-W8</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="16" t="n">
-        <f aca="false">Z20-W8</f>
-        <v>0</v>
-      </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="0"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="25"/>
@@ -1056,13 +1004,8 @@
         <f aca="false">VLOOKUP(AE9,$A$2:$K$9,11)</f>
         <v>2</v>
       </c>
-      <c r="AF10" s="15" t="n">
-        <f aca="false">AG11-AG8</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
@@ -1076,43 +1019,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="9" t="n">
-        <f aca="false">K11+K13</f>
-        <v>12</v>
-      </c>
+      <c r="M11" s="9"/>
       <c r="N11" s="10"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="17" t="n">
-        <f aca="false">R11-P10</f>
-        <v>12</v>
-      </c>
+      <c r="P11" s="17"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="18" t="n">
-        <f aca="false">MIN(U5,U11,U17)</f>
-        <v>20</v>
-      </c>
+      <c r="R11" s="18"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="17" t="n">
-        <f aca="false">W11-U10</f>
-        <v>21</v>
-      </c>
+      <c r="U11" s="17"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="18" t="n">
-        <f aca="false">Z23</f>
-        <v>27</v>
-      </c>
+      <c r="W11" s="18"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="25"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="17" t="n">
-        <f aca="false">AG11-AE10</f>
-        <v>31</v>
-      </c>
+      <c r="AE11" s="17"/>
       <c r="AF11" s="8"/>
-      <c r="AG11" s="18" t="n">
-        <f aca="false">AG8</f>
-        <v>33</v>
-      </c>
+      <c r="AG11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
@@ -1168,35 +1090,17 @@
       <c r="C14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="17" t="n">
-        <f aca="false">M14-K13</f>
-        <v>0</v>
-      </c>
+      <c r="K14" s="17"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="18" t="n">
-        <f aca="false">MIN(P11,P17)</f>
-        <v>12</v>
-      </c>
+      <c r="M14" s="18"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="7" t="n">
-        <f aca="false">M11</f>
-        <v>12</v>
-      </c>
+      <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="9" t="n">
-        <f aca="false">P14+P16</f>
-        <v>18</v>
-      </c>
+      <c r="R14" s="9"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="7" t="n">
-        <f aca="false">MAX(R8,R14)</f>
-        <v>20</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="9" t="n">
-        <f aca="false">U14+U16</f>
-        <v>27</v>
-      </c>
+      <c r="W14" s="9"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="25"/>
       <c r="AD14" s="13"/>
@@ -1225,50 +1129,26 @@
         <f aca="false">VLOOKUP(P15,$A$2:$K$9,11)</f>
         <v>6</v>
       </c>
-      <c r="Q16" s="15" t="n">
-        <f aca="false">R17-R14</f>
-        <v>6</v>
-      </c>
-      <c r="R16" s="16" t="n">
-        <f aca="false">MIN(U14,Z20)-R14</f>
-        <v>2</v>
-      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
       <c r="S16" s="10"/>
       <c r="U16" s="14" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$K$9,11)</f>
         <v>7</v>
       </c>
-      <c r="V16" s="15" t="n">
-        <f aca="false">W17-W14</f>
-        <v>4</v>
-      </c>
-      <c r="W16" s="16" t="n">
-        <f aca="false">AE8-W14</f>
-        <v>4</v>
-      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="16"/>
       <c r="Y16" s="13"/>
       <c r="AD16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="17" t="n">
-        <f aca="false">R17-P16</f>
-        <v>18</v>
-      </c>
+      <c r="P17" s="17"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="18" t="n">
-        <f aca="false">MIN(U17,Z23)</f>
-        <v>24</v>
-      </c>
+      <c r="R17" s="18"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="17" t="n">
-        <f aca="false">W17-U16</f>
-        <v>24</v>
-      </c>
+      <c r="U17" s="17"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="18" t="n">
-        <f aca="false">AE11</f>
-        <v>31</v>
-      </c>
+      <c r="W17" s="18"/>
       <c r="Y17" s="13"/>
       <c r="AD17" s="13"/>
     </row>
@@ -1288,15 +1168,9 @@
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
       <c r="Y20" s="19"/>
-      <c r="Z20" s="7" t="n">
-        <f aca="false">MAX(W8,R14)</f>
-        <v>26</v>
-      </c>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="9" t="n">
-        <f aca="false">Z20+Z22</f>
-        <v>30</v>
-      </c>
+      <c r="AB20" s="9"/>
       <c r="AD20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,28 +1196,16 @@
         <f aca="false">VLOOKUP(Z21,$A$2:$K$9,11)</f>
         <v>4</v>
       </c>
-      <c r="AA22" s="15" t="n">
-        <f aca="false">AB23-AB20</f>
-        <v>1</v>
-      </c>
-      <c r="AB22" s="16" t="n">
-        <f aca="false">AE8-AB20</f>
-        <v>1</v>
-      </c>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U23" s="0"/>
       <c r="V23" s="0"/>
       <c r="W23" s="0"/>
-      <c r="Z23" s="17" t="n">
-        <f aca="false">AB23-Z22</f>
-        <v>27</v>
-      </c>
+      <c r="Z23" s="17"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="18" t="n">
-        <f aca="false">AE11</f>
-        <v>31</v>
-      </c>
+      <c r="AB23" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="28" t="s">
@@ -1448,7 +1310,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1459,8 +1320,8 @@
   </sheetPr>
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R18" activeCellId="0" sqref="R18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1495,13 +1356,9 @@
       <c r="R1" s="0"/>
       <c r="S1" s="0"/>
       <c r="T1" s="0"/>
-      <c r="U1" s="7" t="n">
-        <v>8</v>
-      </c>
+      <c r="U1" s="7"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="9" t="n">
-        <v>16</v>
-      </c>
+      <c r="W1" s="9"/>
       <c r="X1" s="0"/>
       <c r="Y1" s="0"/>
       <c r="Z1" s="0"/>
@@ -1589,12 +1446,8 @@
         <f aca="false">VLOOKUP(U2,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="V3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="V3" s="31"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="30"/>
       <c r="Z3" s="0"/>
@@ -1630,22 +1483,14 @@
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
-      <c r="P4" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="P4" s="7"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="R4" s="9"/>
       <c r="S4" s="0"/>
       <c r="T4" s="30"/>
-      <c r="U4" s="17" t="n">
-        <v>8</v>
-      </c>
+      <c r="U4" s="17"/>
       <c r="V4" s="0"/>
-      <c r="W4" s="18" t="n">
-        <v>16</v>
-      </c>
+      <c r="W4" s="18"/>
       <c r="X4" s="0"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="0"/>
@@ -1726,12 +1571,8 @@
         <f aca="false">VLOOKUP(P5,$A$2:$H$9,8)</f>
         <v>6</v>
       </c>
-      <c r="Q6" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="16"/>
       <c r="S6" s="12"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
@@ -1767,31 +1608,19 @@
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="17" t="n">
-        <v>2</v>
-      </c>
+      <c r="P7" s="17"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="18" t="n">
-        <v>8</v>
-      </c>
+      <c r="R7" s="18"/>
       <c r="S7" s="0"/>
       <c r="T7" s="30"/>
-      <c r="U7" s="7" t="n">
-        <v>8</v>
-      </c>
+      <c r="U7" s="7"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="9" t="n">
-        <v>15</v>
-      </c>
+      <c r="W7" s="9"/>
       <c r="X7" s="0"/>
       <c r="Y7" s="32"/>
-      <c r="Z7" s="7" t="n">
-        <v>16</v>
-      </c>
+      <c r="Z7" s="7"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="9" t="n">
-        <v>24</v>
-      </c>
+      <c r="AB7" s="9"/>
       <c r="AC7" s="0"/>
       <c r="AD7" s="0"/>
       <c r="AE7" s="0"/>
@@ -1872,24 +1701,16 @@
         <f aca="false">VLOOKUP(U8,$A$2:$H$9,8)</f>
         <v>7</v>
       </c>
-      <c r="V9" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="V9" s="26"/>
+      <c r="W9" s="16"/>
       <c r="X9" s="0"/>
       <c r="Y9" s="0"/>
       <c r="Z9" s="14" t="n">
         <f aca="false">VLOOKUP(Z8,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="AA9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="16"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="30"/>
       <c r="AE9" s="0"/>
@@ -1907,22 +1728,14 @@
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
-      <c r="U10" s="17" t="n">
-        <v>9</v>
-      </c>
+      <c r="U10" s="17"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="18" t="n">
-        <v>16</v>
-      </c>
+      <c r="W10" s="18"/>
       <c r="X10" s="0"/>
       <c r="Y10" s="29"/>
-      <c r="Z10" s="17" t="n">
-        <v>16</v>
-      </c>
+      <c r="Z10" s="17"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="18" t="n">
-        <v>24</v>
-      </c>
+      <c r="AB10" s="18"/>
       <c r="AC10" s="0"/>
       <c r="AD10" s="30"/>
       <c r="AE10" s="0"/>
@@ -1941,9 +1754,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M11" s="9"/>
       <c r="N11" s="12"/>
       <c r="O11" s="30"/>
       <c r="P11" s="0"/>
@@ -2011,12 +1822,8 @@
         <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
         <v>2</v>
       </c>
-      <c r="L13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="0"/>
       <c r="O13" s="30"/>
       <c r="P13" s="0"/>
@@ -2034,13 +1841,9 @@
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
       <c r="AD13" s="32"/>
-      <c r="AE13" s="7" t="n">
-        <v>24</v>
-      </c>
+      <c r="AE13" s="7"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="9" t="n">
-        <v>30</v>
-      </c>
+      <c r="AG13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
@@ -2050,13 +1853,9 @@
       <c r="C14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="K14" s="17"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="18" t="n">
-        <v>2</v>
-      </c>
+      <c r="M14" s="18"/>
       <c r="N14" s="0"/>
       <c r="O14" s="30"/>
       <c r="P14" s="0"/>
@@ -2102,9 +1901,7 @@
         <f aca="false">VLOOKUP(AE14,$A$2:$H$9,8)</f>
         <v>6</v>
       </c>
-      <c r="AF15" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF15" s="26"/>
       <c r="AG15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,13 +1930,9 @@
       <c r="AB16" s="0"/>
       <c r="AC16" s="0"/>
       <c r="AD16" s="30"/>
-      <c r="AE16" s="17" t="n">
-        <v>24</v>
-      </c>
+      <c r="AE16" s="17"/>
       <c r="AF16" s="8"/>
-      <c r="AG16" s="18" t="n">
-        <v>30</v>
-      </c>
+      <c r="AG16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N17" s="0"/>
@@ -2174,25 +1967,16 @@
         <f aca="false">VLOOKUP(P17,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="Q18" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="R18" s="16" t="n">
-        <f aca="false">MIN(U16,Z7)-R16</f>
-        <v>0</v>
-      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="16"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="14" t="n">
         <f aca="false">VLOOKUP(U17,$A$2:$H$9,8)</f>
         <v>5</v>
       </c>
-      <c r="V18" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="W18" s="16" t="n">
-        <v>9</v>
-      </c>
+      <c r="V18" s="15"/>
+      <c r="W18" s="16"/>
       <c r="X18" s="0"/>
       <c r="Y18" s="0"/>
       <c r="Z18" s="0"/>
@@ -2207,22 +1991,14 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="17" t="n">
-        <v>8</v>
-      </c>
+      <c r="P19" s="17"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="18" t="n">
-        <v>16</v>
-      </c>
+      <c r="R19" s="18"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
-      <c r="U19" s="17" t="n">
-        <v>19</v>
-      </c>
+      <c r="U19" s="17"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="18" t="n">
-        <v>24</v>
-      </c>
+      <c r="W19" s="18"/>
       <c r="X19" s="0"/>
       <c r="Y19" s="0"/>
       <c r="Z19" s="0"/>
@@ -2336,7 +2112,7 @@
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="U17:W17"/>
   </mergeCells>
-  <conditionalFormatting sqref="L13 Q4 V2 V7 Q17 AG15 V18 AA9">
+  <conditionalFormatting sqref="Q6 L13 Q18 V3 V9 V18 AA9 AF15">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -2358,8 +2134,8 @@
   </sheetPr>
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z10" activeCellId="0" sqref="Z10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V18" activeCellId="0" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2783,7 +2559,8 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="n">
-        <v>2</v>
+        <f aca="false">K11+K13</f>
+        <v>5</v>
       </c>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
@@ -2855,10 +2632,12 @@
         <v>5</v>
       </c>
       <c r="L13" s="15" t="n">
-        <v>0</v>
+        <f aca="false">M14-M11</f>
+        <v>-5</v>
       </c>
       <c r="M13" s="16" t="n">
-        <v>0</v>
+        <f aca="false">MIN(P6,P16)-M11</f>
+        <v>-5</v>
       </c>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
@@ -2891,11 +2670,13 @@
         <v>18</v>
       </c>
       <c r="K14" s="17" t="n">
-        <v>0</v>
+        <f aca="false">M14-K13</f>
+        <v>-5</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="18" t="n">
-        <v>2</v>
+        <f aca="false">MIN(P9,P19)</f>
+        <v>0</v>
       </c>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>

--- a/Übungen/03_Netzplan_Übung2.xlsx
+++ b/Übungen/03_Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -358,7 +358,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,7 +366,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,19 +390,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -564,7 +564,7 @@
   <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -661,9 +661,15 @@
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
-      <c r="U2" s="7"/>
+      <c r="U2" s="7" t="n">
+        <f aca="false">R8</f>
+        <v>20</v>
+      </c>
       <c r="V2" s="8"/>
-      <c r="W2" s="9"/>
+      <c r="W2" s="9" t="n">
+        <f aca="false">U2+U4</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -753,8 +759,14 @@
         <f aca="false">VLOOKUP(U3,$A$2:$K$9,11)</f>
         <v>11</v>
       </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="16"/>
+      <c r="V4" s="15" t="n">
+        <f aca="false">W5-W2</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="16" t="n">
+        <f aca="false">AE8-W2</f>
+        <v>0</v>
+      </c>
       <c r="Y4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,9 +804,15 @@
       <c r="Q5" s="0"/>
       <c r="R5" s="0"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="17"/>
+      <c r="U5" s="17" t="n">
+        <f aca="false">W5-U4</f>
+        <v>20</v>
+      </c>
       <c r="V5" s="8"/>
-      <c r="W5" s="18"/>
+      <c r="W5" s="18" t="n">
+        <f aca="false">AE11</f>
+        <v>31</v>
+      </c>
       <c r="Y5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,23 +924,41 @@
         <f aca="false">ROUNDUP(H8/(I8*J8),0)</f>
         <v>4</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7" t="n">
+        <f aca="false">M11</f>
+        <v>12</v>
+      </c>
       <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
+      <c r="R8" s="9" t="n">
+        <f aca="false">P8+P10</f>
+        <v>20</v>
+      </c>
       <c r="S8" s="10"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="7"/>
+      <c r="U8" s="7" t="n">
+        <f aca="false">R8</f>
+        <v>20</v>
+      </c>
       <c r="V8" s="8"/>
-      <c r="W8" s="9"/>
+      <c r="W8" s="9" t="n">
+        <f aca="false">U8+U10</f>
+        <v>26</v>
+      </c>
       <c r="Y8" s="19"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
-      <c r="AE8" s="7"/>
+      <c r="AE8" s="7" t="n">
+        <f aca="false">MAX(W2,W14,AB20)</f>
+        <v>31</v>
+      </c>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="9"/>
+      <c r="AG8" s="9" t="n">
+        <f aca="false">AE8+AE10</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -984,15 +1020,27 @@
         <f aca="false">VLOOKUP(P9,$A$2:$K$9,11)</f>
         <v>8</v>
       </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16"/>
+      <c r="Q10" s="15" t="n">
+        <f aca="false">R11-R8</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16" t="n">
+        <f aca="false">MIN(U2,U8,U14)-R8</f>
+        <v>0</v>
+      </c>
       <c r="S10" s="10"/>
       <c r="U10" s="14" t="n">
         <f aca="false">VLOOKUP(U9,$A$2:$K$9,11)</f>
         <v>6</v>
       </c>
-      <c r="V10" s="15"/>
-      <c r="W10" s="16"/>
+      <c r="V10" s="15" t="n">
+        <f aca="false">W11-W8</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="16" t="n">
+        <f aca="false">Z20-W8</f>
+        <v>0</v>
+      </c>
       <c r="X10" s="0"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="25"/>
@@ -1004,8 +1052,13 @@
         <f aca="false">VLOOKUP(AE9,$A$2:$K$9,11)</f>
         <v>2</v>
       </c>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="16"/>
+      <c r="AF10" s="15" t="n">
+        <f aca="false">AG11-AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
@@ -1019,22 +1072,43 @@
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9" t="n">
+        <f aca="false">K11+K13</f>
+        <v>12</v>
+      </c>
       <c r="N11" s="10"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="17"/>
+      <c r="P11" s="17" t="n">
+        <f aca="false">R11-P10</f>
+        <v>12</v>
+      </c>
       <c r="Q11" s="8"/>
-      <c r="R11" s="18"/>
+      <c r="R11" s="18" t="n">
+        <f aca="false">MIN(U5,U11,U17)</f>
+        <v>20</v>
+      </c>
       <c r="T11" s="13"/>
-      <c r="U11" s="17"/>
+      <c r="U11" s="17" t="n">
+        <f aca="false">W11-U10</f>
+        <v>21</v>
+      </c>
       <c r="V11" s="8"/>
-      <c r="W11" s="18"/>
+      <c r="W11" s="18" t="n">
+        <f aca="false">Z23</f>
+        <v>27</v>
+      </c>
       <c r="Y11" s="13"/>
       <c r="Z11" s="25"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="17"/>
+      <c r="AE11" s="17" t="n">
+        <f aca="false">AG11-AE10</f>
+        <v>31</v>
+      </c>
       <c r="AF11" s="8"/>
-      <c r="AG11" s="18"/>
+      <c r="AG11" s="18" t="n">
+        <f aca="false">AG8</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
@@ -1090,17 +1164,35 @@
       <c r="C14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="17" t="n">
+        <f aca="false">M14-K13</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="18" t="n">
+        <f aca="false">MIN(P11,P17)</f>
+        <v>12</v>
+      </c>
       <c r="O14" s="13"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7" t="n">
+        <f aca="false">M11</f>
+        <v>12</v>
+      </c>
       <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
+      <c r="R14" s="9" t="n">
+        <f aca="false">P14+P16</f>
+        <v>18</v>
+      </c>
       <c r="T14" s="19"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="7" t="n">
+        <f aca="false">MAX(R8,R14)</f>
+        <v>20</v>
+      </c>
       <c r="V14" s="8"/>
-      <c r="W14" s="9"/>
+      <c r="W14" s="9" t="n">
+        <f aca="false">U14+U16</f>
+        <v>27</v>
+      </c>
       <c r="Y14" s="13"/>
       <c r="Z14" s="25"/>
       <c r="AD14" s="13"/>
@@ -1129,26 +1221,50 @@
         <f aca="false">VLOOKUP(P15,$A$2:$K$9,11)</f>
         <v>6</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
+      <c r="Q16" s="15" t="n">
+        <f aca="false">R17-R14</f>
+        <v>6</v>
+      </c>
+      <c r="R16" s="16" t="n">
+        <f aca="false">MIN(U14,Z20)-R14</f>
+        <v>2</v>
+      </c>
       <c r="S16" s="10"/>
       <c r="U16" s="14" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$K$9,11)</f>
         <v>7</v>
       </c>
-      <c r="V16" s="15"/>
-      <c r="W16" s="16"/>
+      <c r="V16" s="15" t="n">
+        <f aca="false">W17-W14</f>
+        <v>4</v>
+      </c>
+      <c r="W16" s="16" t="n">
+        <f aca="false">AE8-W14</f>
+        <v>4</v>
+      </c>
       <c r="Y16" s="13"/>
       <c r="AD16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="17"/>
+      <c r="P17" s="17" t="n">
+        <f aca="false">R17-P16</f>
+        <v>18</v>
+      </c>
       <c r="Q17" s="8"/>
-      <c r="R17" s="18"/>
+      <c r="R17" s="18" t="n">
+        <f aca="false">MIN(U17,Z23)</f>
+        <v>24</v>
+      </c>
       <c r="T17" s="13"/>
-      <c r="U17" s="17"/>
+      <c r="U17" s="17" t="n">
+        <f aca="false">W17-U16</f>
+        <v>24</v>
+      </c>
       <c r="V17" s="8"/>
-      <c r="W17" s="18"/>
+      <c r="W17" s="18" t="n">
+        <f aca="false">AE11</f>
+        <v>31</v>
+      </c>
       <c r="Y17" s="13"/>
       <c r="AD17" s="13"/>
     </row>
@@ -1168,9 +1284,15 @@
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
       <c r="Y20" s="19"/>
-      <c r="Z20" s="7"/>
+      <c r="Z20" s="7" t="n">
+        <f aca="false">MAX(W8,R14)</f>
+        <v>26</v>
+      </c>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="9"/>
+      <c r="AB20" s="9" t="n">
+        <f aca="false">Z20+Z22</f>
+        <v>30</v>
+      </c>
       <c r="AD20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,16 +1318,28 @@
         <f aca="false">VLOOKUP(Z21,$A$2:$K$9,11)</f>
         <v>4</v>
       </c>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="16"/>
+      <c r="AA22" s="15" t="n">
+        <f aca="false">AB23-AB20</f>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="16" t="n">
+        <f aca="false">AE8-AB20</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U23" s="0"/>
       <c r="V23" s="0"/>
       <c r="W23" s="0"/>
-      <c r="Z23" s="17"/>
+      <c r="Z23" s="17" t="n">
+        <f aca="false">AB23-Z22</f>
+        <v>27</v>
+      </c>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="18"/>
+      <c r="AB23" s="18" t="n">
+        <f aca="false">AE11</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="28" t="s">
@@ -1298,7 +1432,7 @@
     <mergeCell ref="Z21:AB21"/>
     <mergeCell ref="A25:G25"/>
   </mergeCells>
-  <conditionalFormatting sqref="AF10 AA22 V16 V10 V4 Q16 Q10 L13">
+  <conditionalFormatting sqref="AF10 L13 AA22 V16 V10 V4 Q10 Q16">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1320,8 +1454,8 @@
   </sheetPr>
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V21" activeCellId="0" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2134,8 +2268,8 @@
   </sheetPr>
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V18" activeCellId="0" sqref="V18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übungen/03_Netzplan_Übung2.xlsx
+++ b/Übungen/03_Netzplan_Übung2.xlsx
@@ -94,7 +94,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,16 +151,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFDE7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,12 +199,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF43A047"/>
         <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE91E63"/>
-        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,7 +440,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,7 +498,7 @@
       <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FFE91E63"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFDE7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -1455,7 +1441,7 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V21" activeCellId="0" sqref="V21"/>
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1490,9 +1476,15 @@
       <c r="R1" s="0"/>
       <c r="S1" s="0"/>
       <c r="T1" s="0"/>
-      <c r="U1" s="7"/>
+      <c r="U1" s="7" t="n">
+        <f aca="false">R4</f>
+        <v>8</v>
+      </c>
       <c r="V1" s="8"/>
-      <c r="W1" s="9"/>
+      <c r="W1" s="9" t="n">
+        <f aca="false">U1+U3</f>
+        <v>16</v>
+      </c>
       <c r="X1" s="0"/>
       <c r="Y1" s="0"/>
       <c r="Z1" s="0"/>
@@ -1580,8 +1572,14 @@
         <f aca="false">VLOOKUP(U2,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="16"/>
+      <c r="V3" s="31" t="n">
+        <f aca="false">W4-W1</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="16" t="n">
+        <f aca="false">Z7-W1</f>
+        <v>0</v>
+      </c>
       <c r="X3" s="0"/>
       <c r="Y3" s="30"/>
       <c r="Z3" s="0"/>
@@ -1617,14 +1615,26 @@
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="7" t="n">
+        <f aca="false">M11</f>
+        <v>2</v>
+      </c>
       <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
+      <c r="R4" s="9" t="n">
+        <f aca="false">P4+P6</f>
+        <v>8</v>
+      </c>
       <c r="S4" s="0"/>
       <c r="T4" s="30"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="18"/>
+      <c r="U4" s="17" t="n">
+        <f aca="false">W4-U3</f>
+        <v>8</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="18" t="n">
+        <f aca="false">Z10</f>
+        <v>16</v>
+      </c>
       <c r="X4" s="0"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="0"/>
@@ -1705,8 +1715,14 @@
         <f aca="false">VLOOKUP(P5,$A$2:$H$9,8)</f>
         <v>6</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="16"/>
+      <c r="Q6" s="31" t="n">
+        <f aca="false">R7-R4</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="16" t="n">
+        <f aca="false">MIN(U7,U1)-R4</f>
+        <v>0</v>
+      </c>
       <c r="S6" s="12"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
@@ -1742,19 +1758,37 @@
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="17"/>
+      <c r="P7" s="17" t="n">
+        <f aca="false">R7-P6</f>
+        <v>2</v>
+      </c>
       <c r="Q7" s="8"/>
-      <c r="R7" s="18"/>
+      <c r="R7" s="18" t="n">
+        <f aca="false">MIN(U4,U10)</f>
+        <v>8</v>
+      </c>
       <c r="S7" s="0"/>
       <c r="T7" s="30"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="7" t="n">
+        <f aca="false">R4</f>
+        <v>8</v>
+      </c>
       <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
+      <c r="W7" s="9" t="n">
+        <f aca="false">U7+U9</f>
+        <v>15</v>
+      </c>
       <c r="X7" s="0"/>
       <c r="Y7" s="32"/>
-      <c r="Z7" s="7"/>
+      <c r="Z7" s="7" t="n">
+        <f aca="false">MAX(W1,W7,W16)</f>
+        <v>16</v>
+      </c>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="9"/>
+      <c r="AB7" s="9" t="n">
+        <f aca="false">Z7+Z9</f>
+        <v>24</v>
+      </c>
       <c r="AC7" s="0"/>
       <c r="AD7" s="0"/>
       <c r="AE7" s="0"/>
@@ -1835,16 +1869,28 @@
         <f aca="false">VLOOKUP(U8,$A$2:$H$9,8)</f>
         <v>7</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="16"/>
+      <c r="V9" s="31" t="n">
+        <f aca="false">W10-W7</f>
+        <v>1</v>
+      </c>
+      <c r="W9" s="16" t="n">
+        <f aca="false">Z7-W7</f>
+        <v>1</v>
+      </c>
       <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
+      <c r="Y9" s="29"/>
       <c r="Z9" s="14" t="n">
         <f aca="false">VLOOKUP(Z8,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="16"/>
+      <c r="AA9" s="31" t="n">
+        <f aca="false">AB10-AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16" t="n">
+        <f aca="false">AE13-AB7</f>
+        <v>0</v>
+      </c>
       <c r="AC9" s="0"/>
       <c r="AD9" s="30"/>
       <c r="AE9" s="0"/>
@@ -1862,14 +1908,26 @@
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
-      <c r="U10" s="17"/>
+      <c r="U10" s="17" t="n">
+        <f aca="false">W10-U9</f>
+        <v>9</v>
+      </c>
       <c r="V10" s="8"/>
-      <c r="W10" s="18"/>
+      <c r="W10" s="18" t="n">
+        <f aca="false">Z10</f>
+        <v>16</v>
+      </c>
       <c r="X10" s="0"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="17"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="17" t="n">
+        <f aca="false">AB10-Z9</f>
+        <v>16</v>
+      </c>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="18"/>
+      <c r="AB10" s="18" t="n">
+        <f aca="false">AE13</f>
+        <v>24</v>
+      </c>
       <c r="AC10" s="0"/>
       <c r="AD10" s="30"/>
       <c r="AE10" s="0"/>
@@ -1888,18 +1946,21 @@
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9" t="n">
+        <f aca="false">K11+K13</f>
+        <v>2</v>
+      </c>
       <c r="N11" s="12"/>
       <c r="O11" s="30"/>
       <c r="P11" s="0"/>
       <c r="Q11" s="0"/>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
       <c r="Y11" s="30"/>
       <c r="Z11" s="0"/>
       <c r="AA11" s="0"/>
@@ -1927,12 +1988,12 @@
       <c r="Q12" s="0"/>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
-      <c r="T12" s="30"/>
+      <c r="T12" s="0"/>
       <c r="U12" s="0"/>
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
       <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
+      <c r="Y12" s="30"/>
       <c r="Z12" s="0"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
@@ -1956,28 +2017,40 @@
         <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
         <v>2</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
+      <c r="L13" s="31" t="n">
+        <f aca="false">M14-M11</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <f aca="false">MIN(P16,P4)-M11</f>
+        <v>0</v>
+      </c>
       <c r="N13" s="0"/>
       <c r="O13" s="30"/>
       <c r="P13" s="0"/>
       <c r="Q13" s="0"/>
       <c r="R13" s="0"/>
       <c r="S13" s="0"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="30"/>
       <c r="Z13" s="0"/>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
       <c r="AD13" s="32"/>
-      <c r="AE13" s="7"/>
+      <c r="AE13" s="7" t="n">
+        <f aca="false">MAX(AB7,W16)</f>
+        <v>24</v>
+      </c>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="9"/>
+      <c r="AG13" s="9" t="n">
+        <f aca="false">AE13+AE15</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
@@ -1987,9 +2060,15 @@
       <c r="C14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="17" t="n">
+        <f aca="false">M14-K13</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="18" t="n">
+        <f aca="false">MIN(P7,P19)</f>
+        <v>2</v>
+      </c>
       <c r="N14" s="0"/>
       <c r="O14" s="30"/>
       <c r="P14" s="0"/>
@@ -2035,26 +2114,35 @@
         <f aca="false">VLOOKUP(AE14,$A$2:$H$9,8)</f>
         <v>6</v>
       </c>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="34"/>
+      <c r="AF15" s="31" t="n">
+        <f aca="false">AG16-AG13</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N16" s="0"/>
       <c r="O16" s="30"/>
       <c r="P16" s="7" t="n">
+        <f aca="false">M11</f>
         <v>2</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="9" t="n">
+        <f aca="false">P16+P18</f>
         <v>10</v>
       </c>
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
       <c r="U16" s="7" t="n">
+        <f aca="false">R16</f>
         <v>10</v>
       </c>
       <c r="V16" s="8"/>
       <c r="W16" s="9" t="n">
+        <f aca="false">U16+U18</f>
         <v>15</v>
       </c>
       <c r="X16" s="0"/>
@@ -2064,9 +2152,15 @@
       <c r="AB16" s="0"/>
       <c r="AC16" s="0"/>
       <c r="AD16" s="30"/>
-      <c r="AE16" s="17"/>
+      <c r="AE16" s="17" t="n">
+        <f aca="false">AG16-AE15</f>
+        <v>24</v>
+      </c>
       <c r="AF16" s="8"/>
-      <c r="AG16" s="18"/>
+      <c r="AG16" s="18" t="n">
+        <f aca="false">AG13</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N17" s="0"/>
@@ -2101,16 +2195,28 @@
         <f aca="false">VLOOKUP(P17,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="16"/>
+      <c r="Q18" s="31" t="n">
+        <f aca="false">R19-R16</f>
+        <v>6</v>
+      </c>
+      <c r="R18" s="16" t="n">
+        <f aca="false">MIN(U16,Z7)-R16</f>
+        <v>0</v>
+      </c>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="14" t="n">
         <f aca="false">VLOOKUP(U17,$A$2:$H$9,8)</f>
         <v>5</v>
       </c>
-      <c r="V18" s="15"/>
-      <c r="W18" s="16"/>
+      <c r="V18" s="31" t="n">
+        <f aca="false">W19-W16</f>
+        <v>9</v>
+      </c>
+      <c r="W18" s="16" t="n">
+        <f aca="false">AE13-W16</f>
+        <v>9</v>
+      </c>
       <c r="X18" s="0"/>
       <c r="Y18" s="0"/>
       <c r="Z18" s="0"/>
@@ -2125,14 +2231,26 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="17"/>
+      <c r="P19" s="17" t="n">
+        <f aca="false">R19-P18</f>
+        <v>8</v>
+      </c>
       <c r="Q19" s="8"/>
-      <c r="R19" s="18"/>
+      <c r="R19" s="18" t="n">
+        <f aca="false">MIN(Z10,U19)</f>
+        <v>16</v>
+      </c>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
-      <c r="U19" s="17"/>
+      <c r="U19" s="17" t="n">
+        <f aca="false">W19-U18</f>
+        <v>19</v>
+      </c>
       <c r="V19" s="8"/>
-      <c r="W19" s="18"/>
+      <c r="W19" s="18" t="n">
+        <f aca="false">AE16</f>
+        <v>24</v>
+      </c>
       <c r="X19" s="0"/>
       <c r="Y19" s="0"/>
       <c r="Z19" s="0"/>
@@ -2246,7 +2364,7 @@
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="U17:W17"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q6 L13 Q18 V3 V9 V18 AA9 AF15">
+  <conditionalFormatting sqref="AF15 AA9 V9 V18 V3 Q6 Q18 L13">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/03_Netzplan_Übung2.xlsx
+++ b/Übungen/03_Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="21">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -39,10 +39,13 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">K</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -315,7 +318,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,10 +441,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -542,6 +541,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -549,15 +552,15 @@
   </sheetPr>
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="9" min="8" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="10" min="10" style="1" width="6.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="1" max="9" min="8" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="1" width="6.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="3.83"/>
   </cols>
   <sheetData>
@@ -615,16 +618,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="n">
@@ -659,10 +662,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -670,10 +673,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>9</v>
@@ -706,18 +709,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="n">
@@ -760,12 +763,12 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -803,15 +806,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -842,17 +845,17 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -882,17 +885,17 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -948,16 +951,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -977,14 +980,14 @@
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
@@ -995,7 +998,7 @@
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
       <c r="AE9" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
@@ -1048,11 +1051,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>0</v>
@@ -1103,7 +1106,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="K12" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -1118,10 +1121,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" s="14" t="n">
         <f aca="false">VLOOKUP(K12,$A$2:$K$9,11)</f>
@@ -1144,11 +1147,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="17" t="n">
         <f aca="false">M14-K13</f>
@@ -1186,14 +1189,14 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O15" s="19"/>
       <c r="P15" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -1289,7 +1292,7 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
@@ -1327,9 +1330,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -1344,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="I26" s="5" t="n">
         <v>2</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="I27" s="5" t="n">
         <v>1</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="I28" s="5" t="n">
         <v>1</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="I29" s="5" t="n">
         <v>3</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="I30" s="5" t="n">
         <v>1</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="I31" s="5" t="n">
         <v>2</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>0.925</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="I32" s="22" t="n">
         <v>1</v>
       </c>
@@ -1418,7 +1421,7 @@
     <mergeCell ref="Z21:AB21"/>
     <mergeCell ref="A25:G25"/>
   </mergeCells>
-  <conditionalFormatting sqref="AF10 L13 AA22 V16 V10 V4 Q10 Q16">
+  <conditionalFormatting sqref="L13 AF10 AA22 V16 V10 V4 Q10 Q16">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1430,6 +1433,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1440,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="1" sqref="I2:J9 M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1498,16 +1502,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="n">
@@ -1541,10 +1545,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1552,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="n">
@@ -1572,7 +1576,7 @@
         <f aca="false">VLOOKUP(U2,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="V3" s="31" t="n">
+      <c r="V3" s="15" t="n">
         <f aca="false">W4-W1</f>
         <v>0</v>
       </c>
@@ -1593,18 +1597,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="n">
@@ -1651,12 +1655,12 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1669,7 +1673,7 @@
       <c r="N5" s="0"/>
       <c r="O5" s="12"/>
       <c r="P5" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -1691,15 +1695,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1715,7 +1719,7 @@
         <f aca="false">VLOOKUP(P5,$A$2:$H$9,8)</f>
         <v>6</v>
       </c>
-      <c r="Q6" s="31" t="n">
+      <c r="Q6" s="15" t="n">
         <f aca="false">R7-R4</f>
         <v>0</v>
       </c>
@@ -1741,15 +1745,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1779,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="X7" s="0"/>
-      <c r="Y7" s="32"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="7" t="n">
         <f aca="false">MAX(W1,W7,W16)</f>
         <v>16</v>
@@ -1797,19 +1801,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1822,16 +1826,16 @@
       <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
-      <c r="T8" s="32"/>
+      <c r="T8" s="31"/>
       <c r="U8" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="29"/>
       <c r="Y8" s="29"/>
       <c r="Z8" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
@@ -1843,13 +1847,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
@@ -1869,7 +1873,7 @@
         <f aca="false">VLOOKUP(U8,$A$2:$H$9,8)</f>
         <v>7</v>
       </c>
-      <c r="V9" s="31" t="n">
+      <c r="V9" s="15" t="n">
         <f aca="false">W10-W7</f>
         <v>1</v>
       </c>
@@ -1883,7 +1887,7 @@
         <f aca="false">VLOOKUP(Z8,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="AA9" s="31" t="n">
+      <c r="AA9" s="15" t="n">
         <f aca="false">AB10-AB7</f>
         <v>0</v>
       </c>
@@ -1936,11 +1940,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>0</v>
@@ -1978,12 +1982,12 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="K12" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="33"/>
+      <c r="O12" s="32"/>
       <c r="P12" s="0"/>
       <c r="Q12" s="0"/>
       <c r="R12" s="0"/>
@@ -2008,16 +2012,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" s="14" t="n">
         <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
         <v>2</v>
       </c>
-      <c r="L13" s="31" t="n">
+      <c r="L13" s="15" t="n">
         <f aca="false">M14-M11</f>
         <v>0</v>
       </c>
@@ -2041,7 +2045,7 @@
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
-      <c r="AD13" s="32"/>
+      <c r="AD13" s="31"/>
       <c r="AE13" s="7" t="n">
         <f aca="false">MAX(AB7,W16)</f>
         <v>24</v>
@@ -2054,11 +2058,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="17" t="n">
         <f aca="false">M14-K13</f>
@@ -2087,7 +2091,7 @@
       <c r="AC14" s="0"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
@@ -2114,11 +2118,11 @@
         <f aca="false">VLOOKUP(AE14,$A$2:$H$9,8)</f>
         <v>6</v>
       </c>
-      <c r="AF15" s="31" t="n">
+      <c r="AF15" s="15" t="n">
         <f aca="false">AG16-AG13</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="34" t="n">
+      <c r="AG15" s="33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2164,16 +2168,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N17" s="0"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
       <c r="U17" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
@@ -2195,7 +2199,7 @@
         <f aca="false">VLOOKUP(P17,$A$2:$H$9,8)</f>
         <v>8</v>
       </c>
-      <c r="Q18" s="31" t="n">
+      <c r="Q18" s="15" t="n">
         <f aca="false">R19-R16</f>
         <v>6</v>
       </c>
@@ -2209,7 +2213,7 @@
         <f aca="false">VLOOKUP(U17,$A$2:$H$9,8)</f>
         <v>5</v>
       </c>
-      <c r="V18" s="31" t="n">
+      <c r="V18" s="15" t="n">
         <f aca="false">W19-W16</f>
         <v>9</v>
       </c>
@@ -2387,7 +2391,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="P13" activeCellId="1" sqref="I2:J9 P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2439,16 +2443,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="n">
@@ -2481,10 +2485,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2492,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>3</v>
@@ -2527,15 +2531,15 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2572,12 +2576,12 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2611,15 +2615,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2653,15 +2657,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2692,17 +2696,17 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2733,16 +2737,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>11</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -2800,11 +2804,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>0</v>
@@ -2812,7 +2816,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="n">
         <f aca="false">K11+K13</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
@@ -2843,7 +2847,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="K12" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -2874,23 +2878,14 @@
         <v>6</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="14" t="n">
-        <f aca="false">VLOOKUP(K12,$A$2:$H$9,8)</f>
-        <v>5</v>
-      </c>
-      <c r="L13" s="15" t="n">
-        <f aca="false">M14-M11</f>
-        <v>-5</v>
-      </c>
-      <c r="M13" s="16" t="n">
-        <f aca="false">MIN(P6,P16)-M11</f>
-        <v>-5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
@@ -2915,21 +2910,15 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="17" t="n">
-        <f aca="false">M14-K13</f>
-        <v>-5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K14" s="17"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="18" t="n">
-        <f aca="false">MIN(P9,P19)</f>
-        <v>0</v>
-      </c>
+      <c r="M14" s="18"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
       <c r="P14" s="0"/>
